--- a/заказы/филиалы и опт/2024/06,24/25,06,24 Ост КИ филиалы/дв 25,06,24 бррсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/06,24/25,06,24 Ост КИ филиалы/дв 25,06,24 бррсч ост ки от Зверева.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\06,24\25,06,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B08C2A-74A2-4D29-BD4F-063907FF2A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C41CA-8169-4A11-A87B-429166D23BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="182">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -575,6 +575,9 @@
   <si>
     <t>29,06,(1)</t>
   </si>
+  <si>
+    <t>+700кг???????????????</t>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -754,6 +757,7 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1060,10 +1064,10 @@
   <dimension ref="A1:AY494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="V101" sqref="V101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2487,9 @@
       <c r="AC14" s="1">
         <v>35.2502</v>
       </c>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="28" t="s">
+        <v>181</v>
+      </c>
       <c r="AE14" s="1">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -7392,7 +7398,10 @@
         <v>300</v>
       </c>
       <c r="U59" s="5"/>
-      <c r="V59" s="1"/>
+      <c r="V59" s="1">
+        <f>P59/(Y59/100)-100</f>
+        <v>132.77310924369746</v>
+      </c>
       <c r="W59" s="1">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -8293,7 +8302,10 @@
         <v>400</v>
       </c>
       <c r="U67" s="5"/>
-      <c r="V67" s="1"/>
+      <c r="V67" s="1">
+        <f>P67/(Y67/100)-100</f>
+        <v>60.944206008583677</v>
+      </c>
       <c r="W67" s="1">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -10648,7 +10660,10 @@
       <c r="U88" s="5">
         <v>750</v>
       </c>
-      <c r="V88" s="1"/>
+      <c r="V88" s="1">
+        <f>P88/(Y88/100)-100</f>
+        <v>75.609756097560989</v>
+      </c>
       <c r="W88" s="1">
         <f t="shared" si="48"/>
         <v>13.5</v>
@@ -12176,7 +12191,10 @@
       <c r="U102" s="5">
         <v>150</v>
       </c>
-      <c r="V102" s="1"/>
+      <c r="V102" s="1">
+        <f>(202/5)/(P102/100)-100</f>
+        <v>98.039215686274503</v>
+      </c>
       <c r="W102" s="1">
         <f t="shared" si="52"/>
         <v>15.049019607843139</v>
